--- a/data/trans_camb/P19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 4,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 14,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 30,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,15; 3,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 11,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,75; 21,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,1; 2,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 10,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,29; 23,4</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,09%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,86; 17,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 67,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,94; 140,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,68; 14,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; 45,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,16; 84,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,81; 8,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,43; 43,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,88; 92,47</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 3,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,96; 7,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,17; 24,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; 3,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 5,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,34; 22,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,17; 1,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 4,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,52; 20,56</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; 8,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,74; 19,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,39; 67,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,87; 11,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,94; 16,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,17; 63,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; 4,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,05; 13,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,11; 56,71</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,48</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 8,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 12,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,4; 26,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 10,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,55; 15,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,72; 28,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 8,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,37; 12,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,19; 26,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,77%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,08; 26,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 38,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,41; 83,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 34,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,11; 50,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,29; 91,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 25,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,62; 38,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,94; 80,29</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 9,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 12,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,15; 23,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 12,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,73; 17,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,89; 27,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 9,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 13,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,59; 23,42</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,6%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,05; 33,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 47,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,28; 83,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 43,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,15; 62,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,99; 96,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 33,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,14; 46,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,0; 80,18</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,83</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 10,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 15,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,41; 32,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 10,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 17,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,46; 32,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 8,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,72; 14,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,04; 30,85</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,68%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,47; 66,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,23; 102,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,02; 212,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,43; 51,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,63; 78,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,73; 159,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 41,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,04; 69,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>85,78; 156,55</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,28</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,42</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 10,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,14; 17,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,48; 29,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 6,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,29; 18,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,37; 48,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 7,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,39; 16,81</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,34; 41,8</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,95%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>324,62%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>268,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,68%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>289,67%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,41; 166,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,42; 294,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>194,47; 512,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,07; 74,45</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,42; 188,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>171,4; 475,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,36; 89,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,99; 201,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>211,38; 445,16</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,96</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,68</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 3,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 8,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,89; 20,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 4,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 10,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,1; 26,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 3,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 9,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,57; 22,62</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,17%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 14,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,23; 32,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,38; 76,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 15,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,08; 37,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,76; 89,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 12,28</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,37; 32,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,31; 79,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,28</t>
+          <t>19,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,45</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>14,86</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 30,95</t>
+          <t>8,58; 28,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 21,52</t>
+          <t>2,19; 18,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 23,4</t>
+          <t>8,0; 21,72</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,33%</t>
+          <t>75,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>54,66%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,94; 140,55</t>
+          <t>31,65; 131,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 84,8</t>
+          <t>7,3; 74,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,88; 92,47</t>
+          <t>27,77; 85,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,94</t>
+          <t>16,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,09</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>11,87</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,17; 24,08</t>
+          <t>8,26; 23,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 22,36</t>
+          <t>-11,4; 18,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 20,56</t>
+          <t>0,49; 17,89</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>30,74%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,39; 67,21</t>
+          <t>20,33; 65,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 63,14</t>
+          <t>-26,86; 50,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 56,71</t>
+          <t>1,62; 48,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,85</t>
+          <t>20,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,48</t>
+          <t>22,84</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,26</t>
+          <t>21,66</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,4; 26,76</t>
+          <t>13,84; 26,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,72; 28,47</t>
+          <t>17,13; 27,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,19; 26,43</t>
+          <t>17,6; 25,83</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,03%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>62,05%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,41; 83,26</t>
+          <t>35,44; 81,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,29; 91,24</t>
+          <t>45,66; 89,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,94; 80,29</t>
+          <t>47,33; 78,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,92</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,66</t>
+          <t>19,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,84</t>
+          <t>11,38</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 23,05</t>
+          <t>-15,58; 21,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,89; 27,44</t>
+          <t>10,99; 25,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,59; 23,42</t>
+          <t>-5,08; 21,05</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>51,5%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,13%</t>
+          <t>60,24%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,6%</t>
+          <t>36,01%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,28; 83,52</t>
+          <t>-47,93; 72,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,99; 96,85</t>
+          <t>32,86; 89,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,0; 80,18</t>
+          <t>-15,71; 68,75</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,88</t>
+          <t>26,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,83</t>
+          <t>26,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26,62</t>
+          <t>26,02</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,41; 32,76</t>
+          <t>19,83; 32,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,46; 32,5</t>
+          <t>19,95; 31,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,04; 30,85</t>
+          <t>21,53; 30,28</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>138,67%</t>
+          <t>135,57%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>107,16%</t>
+          <t>104,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>118,68%</t>
+          <t>116,0%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>87,02; 212,73</t>
+          <t>84,6; 208,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,73; 159,08</t>
+          <t>67,96; 156,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>85,78; 156,55</t>
+          <t>83,92; 153,18</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>25,95</t>
+          <t>29,41</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,28</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>31,65</t>
+          <t>45,24</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>12,13</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>29,42</t>
+          <t>39,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,12</t>
+          <t>-2,3; 10,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8,14; 17,73</t>
+          <t>5,12; 18,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,48; 29,93</t>
+          <t>23,47; 35,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,98</t>
+          <t>-5,87; 7,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,29; 18,25</t>
+          <t>4,66; 20,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>23,37; 48,85</t>
+          <t>24,34; 69,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,6</t>
+          <t>-2,21; 6,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,39; 16,81</t>
+          <t>7,34; 17,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>24,34; 41,8</t>
+          <t>26,27; 63,1</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>159,95%</t>
+          <t>120,42%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>324,62%</t>
+          <t>297,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>112,8%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>268,82%</t>
+          <t>258,84%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>128,68%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>289,67%</t>
+          <t>286,55%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,41; 166,36</t>
+          <t>-17,68; 140,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>75,42; 294,78</t>
+          <t>39,37; 260,05</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>194,47; 512,38</t>
+          <t>167,81; 530,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 74,45</t>
+          <t>-27,91; 52,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>59,42; 188,37</t>
+          <t>21,69; 141,77</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>171,4; 475,32</t>
+          <t>129,84; 595,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,36; 89,08</t>
+          <t>-14,62; 57,22</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>80,99; 201,79</t>
+          <t>45,26; 146,51</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>211,38; 445,16</t>
+          <t>176,93; 579,65</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>14,4</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>20,85</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>14,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,96</t>
+          <t>23,68</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>22,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,79</t>
+          <t>3,22; 16,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,8</t>
+          <t>7,62; 21,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,88</t>
+          <t>14,84; 26,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,34</t>
+          <t>2,09; 11,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,47</t>
+          <t>8,4; 21,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,1; 26,29</t>
+          <t>18,74; 28,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,45</t>
+          <t>3,94; 11,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,08</t>
+          <t>9,92; 19,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,57; 22,62</t>
+          <t>19,06; 26,13</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>200,57%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>298,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>431,46%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>134,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>286,41%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>470,07%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>158,92%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>290,62%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>68,17%</t>
+          <t>454,31%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>16,98; 690,51</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>71,09; 900,43</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>149,45; 1246,23</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>24,78; 452,18</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>100,12; 769,81</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>213,87; 1146,47</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>54,26; 382,32</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>140,43; 642,19</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>250,99; 872,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>14,93</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>20,69</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>7,19</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>17,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 3,79</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 8,8</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 19,51</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 4,34</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 10,47</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 30,22</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 3,45</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 9,08</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 22,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>21,78%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>52,19%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>27,77%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>71,1%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>62,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-5,43; 14,0</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>11,23; 32,68</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>49,38; 76,83</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 69,78</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-1,7; 15,54</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>18,08; 37,38</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>58,76; 89,71</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>54,28; 104,99</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-0,25; 12,28</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>18,37; 32,8</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>59,31; 79,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>43,71; 78,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 4,06</t>
+          <t>-8,89; 4,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 14,87</t>
+          <t>1,21; 15,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 28,59</t>
+          <t>9,2; 29,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 3,68</t>
+          <t>-8,55; 4,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 11,57</t>
+          <t>-1,94; 10,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 18,98</t>
+          <t>1,64; 18,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 2,28</t>
+          <t>-6,99; 2,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,94</t>
+          <t>1,63; 11,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,0; 21,72</t>
+          <t>7,8; 21,54</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 17,63</t>
+          <t>-30,86; 20,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 67,45</t>
+          <t>3,79; 70,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,65; 131,32</t>
+          <t>31,67; 130,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 14,26</t>
+          <t>-26,48; 17,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 45,87</t>
+          <t>-6,08; 42,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 74,83</t>
+          <t>4,9; 70,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 8,94</t>
+          <t>-23,46; 9,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 43,99</t>
+          <t>5,47; 45,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,77; 85,56</t>
+          <t>26,74; 84,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 3,04</t>
+          <t>-8,48; 2,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 7,17</t>
+          <t>-4,13; 7,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 23,49</t>
+          <t>8,56; 22,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 3,96</t>
+          <t>-7,7; 3,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 5,65</t>
+          <t>-6,09; 5,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 18,65</t>
+          <t>-8,85; 18,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 1,75</t>
+          <t>-6,68; 1,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,79</t>
+          <t>-3,43; 4,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 17,89</t>
+          <t>0,01; 18,12</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 8,4</t>
+          <t>-20,57; 7,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 19,95</t>
+          <t>-10,08; 20,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,33; 65,01</t>
+          <t>20,64; 63,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 11,01</t>
+          <t>-18,69; 11,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 16,35</t>
+          <t>-14,9; 16,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 50,28</t>
+          <t>-21,78; 50,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 4,79</t>
+          <t>-16,42; 4,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 13,17</t>
+          <t>-8,46; 12,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 48,0</t>
+          <t>0,65; 48,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 8,74</t>
+          <t>-3,29; 9,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 12,27</t>
+          <t>0,06; 11,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 26,22</t>
+          <t>13,8; 26,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 10,96</t>
+          <t>-0,98; 10,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 15,71</t>
+          <t>4,82; 16,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 27,8</t>
+          <t>16,89; 27,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 8,27</t>
+          <t>-0,28; 7,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,65</t>
+          <t>4,52; 12,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,83</t>
+          <t>17,57; 25,85</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 26,62</t>
+          <t>-8,46; 27,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 38,04</t>
+          <t>0,09; 36,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,44; 81,36</t>
+          <t>35,36; 81,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 34,54</t>
+          <t>-2,74; 33,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,11; 50,69</t>
+          <t>12,67; 51,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,66; 89,28</t>
+          <t>45,98; 89,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 25,2</t>
+          <t>-0,75; 24,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,62; 38,04</t>
+          <t>12,25; 39,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>47,33; 78,46</t>
+          <t>46,86; 79,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 9,2</t>
+          <t>-3,99; 9,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 12,73</t>
+          <t>-0,2; 12,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 21,5</t>
+          <t>-16,78; 21,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 12,65</t>
+          <t>-0,03; 12,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,73; 17,81</t>
+          <t>5,14; 17,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,99; 25,26</t>
+          <t>9,98; 25,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 9,65</t>
+          <t>0,19; 9,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 13,6</t>
+          <t>4,4; 13,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 21,05</t>
+          <t>-6,0; 21,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 33,12</t>
+          <t>-11,05; 34,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,63; 47,06</t>
+          <t>-0,52; 46,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 72,2</t>
+          <t>-51,24; 72,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 43,46</t>
+          <t>-0,17; 41,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,15; 62,91</t>
+          <t>14,11; 62,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,86; 89,82</t>
+          <t>29,94; 88,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 33,4</t>
+          <t>-0,22; 32,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,14; 46,76</t>
+          <t>12,41; 46,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 68,75</t>
+          <t>-17,99; 68,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 10,81</t>
+          <t>-2,39; 10,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,04; 15,92</t>
+          <t>1,41; 15,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,83; 32,18</t>
+          <t>19,18; 32,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 10,81</t>
+          <t>-3,18; 10,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,51; 17,3</t>
+          <t>2,81; 17,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,95; 31,86</t>
+          <t>19,78; 31,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 8,42</t>
+          <t>-0,57; 8,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,72; 14,01</t>
+          <t>3,98; 14,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,53; 30,28</t>
+          <t>21,49; 29,68</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 66,36</t>
+          <t>-10,94; 67,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,23; 102,91</t>
+          <t>6,77; 99,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>84,6; 208,49</t>
+          <t>82,87; 213,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 51,67</t>
+          <t>-11,11; 49,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>11,63; 78,53</t>
+          <t>9,88; 77,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>67,96; 156,53</t>
+          <t>67,55; 146,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 41,83</t>
+          <t>-2,57; 44,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,04; 69,18</t>
+          <t>14,55; 71,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>83,92; 153,18</t>
+          <t>84,72; 149,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 10,01</t>
+          <t>-2,87; 9,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,12; 18,56</t>
+          <t>4,95; 18,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23,47; 35,35</t>
+          <t>23,21; 34,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 7,58</t>
+          <t>-5,62; 7,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,66; 20,21</t>
+          <t>5,83; 20,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>24,34; 69,13</t>
+          <t>24,62; 71,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,79</t>
+          <t>-2,64; 6,34</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>7,34; 17,03</t>
+          <t>6,62; 17,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>26,27; 63,1</t>
+          <t>25,77; 63,11</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 140,74</t>
+          <t>-23,35; 138,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>39,37; 260,05</t>
+          <t>34,31; 259,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>167,81; 530,61</t>
+          <t>169,02; 521,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 52,14</t>
+          <t>-28,07; 53,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>21,69; 141,77</t>
+          <t>27,16; 148,66</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>129,84; 595,6</t>
+          <t>133,64; 573,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 57,22</t>
+          <t>-17,33; 54,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>45,26; 146,51</t>
+          <t>38,01; 142,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>176,93; 579,65</t>
+          <t>166,55; 535,85</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,22; 16,4</t>
+          <t>2,98; 16,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>7,62; 21,39</t>
+          <t>7,64; 21,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>14,84; 26,16</t>
+          <t>14,32; 25,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,09; 11,82</t>
+          <t>1,94; 11,56</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,4; 21,31</t>
+          <t>7,57; 21,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,74; 28,04</t>
+          <t>18,97; 27,85</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,94; 11,62</t>
+          <t>3,84; 12,03</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,92; 19,74</t>
+          <t>9,98; 19,84</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,06; 26,13</t>
+          <t>18,8; 25,75</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>16,98; 690,51</t>
+          <t>17,8; 724,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>71,09; 900,43</t>
+          <t>77,71; 986,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>149,45; 1246,23</t>
+          <t>135,93; 1193,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>24,78; 452,18</t>
+          <t>21,59; 397,8</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>100,12; 769,81</t>
+          <t>84,43; 761,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>213,87; 1146,47</t>
+          <t>213,71; 1186,57</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>54,26; 382,32</t>
+          <t>48,74; 370,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>140,43; 642,19</t>
+          <t>137,3; 617,2</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>250,99; 872,95</t>
+          <t>247,56; 848,74</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,79</t>
+          <t>-1,54; 3,66</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,8</t>
+          <t>3,48; 8,79</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>4,74; 19,51</t>
+          <t>5,72; 19,28</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,34</t>
+          <t>-0,17; 4,61</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,47</t>
+          <t>5,48; 10,66</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,32; 30,22</t>
+          <t>16,34; 30,13</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,45</t>
+          <t>-0,25; 3,22</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,08</t>
+          <t>5,2; 8,92</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>12,68; 22,35</t>
+          <t>12,9; 22,36</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 14,0</t>
+          <t>-5,24; 13,47</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>11,23; 32,68</t>
+          <t>11,52; 32,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>17,66; 69,78</t>
+          <t>20,64; 69,24</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 15,54</t>
+          <t>-0,52; 16,85</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>18,08; 37,38</t>
+          <t>18,18; 38,44</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>54,28; 104,99</t>
+          <t>54,66; 105,87</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 12,28</t>
+          <t>-0,83; 11,66</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>18,37; 32,8</t>
+          <t>17,38; 31,98</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>43,71; 78,79</t>
+          <t>44,04; 79,34</t>
         </is>
       </c>
     </row>
